--- a/yz.xlsx
+++ b/yz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7201C1F7-EB9C-4B8A-8F37-DC2E0ABDE728/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC34D7E9-3908-C44C-B8C2-6F71D7558427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E1595-D3A0-0941-B9E2-6B5584C7EEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="1480" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t>loc</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>专业分流：临床心理学及精神健康</t>
+  </si>
+  <si>
+    <t>硕士：社会工作</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="C5:D8"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -1,44 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E1595-D3A0-0941-B9E2-6B5584C7EEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B9525-59E2-6E4C-A4CD-ACA62D8297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1480" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
-    <sheet name="language_skills" sheetId="2" r:id="rId2"/>
+    <sheet name="english_version" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="language_skills" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK52" localSheetId="0">main!$C$6</definedName>
-    <definedName name="OLE_LINK65" localSheetId="0">main!$D$8</definedName>
+    <definedName name="OLE_LINK52" localSheetId="1">english_version!$C$7</definedName>
+    <definedName name="OLE_LINK52" localSheetId="0">main!$C$7</definedName>
+    <definedName name="OLE_LINK65" localSheetId="1">english_version!$D$9</definedName>
+    <definedName name="OLE_LINK65" localSheetId="0">main!$D$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
   <si>
     <t>loc</t>
   </si>
@@ -115,9 +111,6 @@
     <t>美国，圣保罗</t>
   </si>
   <si>
-    <t>树人大学</t>
-  </si>
-  <si>
     <t>working</t>
   </si>
   <si>
@@ -127,36 +120,21 @@
     <t>美国，明尼阿波利斯</t>
   </si>
   <si>
-    <t>为残疾人及精神病人提供职业发展及巩固职业稳定性的咨询服务；与职业咨询测评分析师紧密合作确保为服务对象建立长期稳定的职业规划；帮助服务对象与雇主建立有效的合作关系，为服务对象探索和创造额外就业机会</t>
-  </si>
-  <si>
     <t>“ NAVIGATE” 项目职业及教育辅助顾问（实习）</t>
   </si>
   <si>
-    <t>运用 IPS (Individual Placement and Support) 模型理论支持并辅助第一阶段的精神疾病患者实现教育和职业目标</t>
-  </si>
-  <si>
     <t>运用 CBT(感知心理学理论)、DBT(行为心理学理论)和自我康复培训理论为案主提供部分心理咨询服务</t>
   </si>
   <si>
-    <t>工作内容：简历修改、参与招聘会及面试培训、职业辅导</t>
-  </si>
-  <si>
     <t>路德会社会服务非盈利组织</t>
   </si>
   <si>
     <t>“生命天堂”项目青少年辅导员</t>
   </si>
   <si>
-    <t>辅导及培训未成年妈妈独立生活的能力，帮助她们建立财务管理能力，增强家务工作技能并培训相关面试技巧，帮助照料未成年妈妈的新生儿和情绪疏导，每天记录相关工作日记并录入机构信息数据库</t>
-  </si>
-  <si>
     <t>项目管理员（实习）</t>
   </si>
   <si>
-    <t>辅导培训有困难的求职者（75%的服务对象为美国的新移民及难民）进行简历撰写及培训职业发展，提供一对一的职业咨询服务提高案主的沟通和写作能力，社会能力及求职技巧</t>
-  </si>
-  <si>
     <t>MAZE非盈利组织</t>
   </si>
   <si>
@@ -181,18 +159,12 @@
     <t>儿童阅读辅导员（志愿性）</t>
   </si>
   <si>
-    <t>为6到9岁适龄儿童提供以社区为基础的周末阅读辅导服务</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAPI非盈利组织 </t>
   </si>
   <si>
     <t>食品免费供应货仓员（志愿性）</t>
   </si>
   <si>
-    <t>整理食品货架，装米，封装食物向低收入家庭及人群分发免费食</t>
-  </si>
-  <si>
     <t>参与2016年美国总统大选向市民分发选票的志愿活动</t>
   </si>
   <si>
@@ -205,9 +177,6 @@
     <t>中国，丽水</t>
   </si>
   <si>
-    <t>接待来访民众并做好相关信息登记工作，定期完成电子录入</t>
-  </si>
-  <si>
     <t>leadership</t>
   </si>
   <si>
@@ -251,19 +220,93 @@
   </si>
   <si>
     <t>硕士：社会工作</t>
+  </si>
+  <si>
+    <r>
+      <t>为残疾人及精神病人提供职业发展和巩固职业稳定性的咨询服务。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与职业咨询测评分析师紧密合作确保为案主建立长期稳定的职业规划。基于案主个人的工作技巧层次和工作经历使用专业的社会工作技巧帮助案主选择和追求合适的工作岗位。帮助案主发展有效的职业培训和雇佣计划。分析案主的自身优势并向他们展示如何有效的在工作中运用这些优势。指导案主在学习过程中完成工作任务。评估对案主的工作培训和工作支持的需要。监督和评估案主的各方面的进步。适时记录工作日志并及时向主管反馈。与案主建立良好的职业关系提供有同理心的和有建设性的反馈。与雇主确认发展并保持有意义的合作伙伴关系为案主创造更多的工作机会。帮助案主修改简历并提出合适的建议。协助案主提交工作申请并为案主提供模拟面试为正式面试作准备。协同案主参与招聘会探索更多的工作机会和提升与雇主交流的沟通技巧</t>
+    </r>
+  </si>
+  <si>
+    <t>支持第一阶段的精神病患者实现教育和职业目标，运用IPS (Individual Placement and Support)模型理论帮助他们生活在一个行为健康的环境中并有能力选择合适自己的职业。在专业支持的条件下开展家访于舒适的环境中支持案主并核对他们的进步情况。与案主家人建立职业合作关系帮助案主学习与亲人和朋友建立健康的亲密关系。探访案主的学校和工作单位在职业环境中确认他们的进步情况并通过培训他们提升职业和学术技巧。评估案主在职业中的优势和仍需提升的地方。参与定期的会议与心理咨询师讨论案主的进步情况和问题。与此同时运用CBT(认知行为疗法),DBT(辩证行为疗法)和自我康复培训理论为案主提供部分心理咨询服务。</t>
+  </si>
+  <si>
+    <t>辅导及培训未成年妈妈独立生活的能力，帮助她们建立财务管理能力，增强家务工作技能并培训相关面试技巧，帮助照料未成年妈妈的新生儿和情绪疏导，每天记录相关工作日记并录入机构信息数据库。保护未成年妈妈和孩子的健康和安全。为未成年妈妈提供直接的督导，支持和引导。</t>
+  </si>
+  <si>
+    <t>支持有就业困难的求职者（75%的案主是美国的难民和新移民）进行简历撰写及职业技巧的建立，提供一对一的职业咨询服务提高案主的社交能力和面试技巧，提供求职技巧培训和职业外展训练服务,同时帮助案主提升英文口语和写作技巧。参与定期的督导会议综合分析案主的情况，包括他们的交通，医疗保健和儿童保育等。与其它非赢利组织建立合作关系为案主获得更多的资源。提供模拟面试帮助案主提供面试技巧。发展与案主的信任关系为案主提供有同理心的和有建设性的反馈意见。</t>
+  </si>
+  <si>
+    <t>为6到9岁适龄儿童提供以社区为基础的周末阅读辅导服务，回答儿童在阅读中遇到的问题并帮助他们完成周末家庭作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整理食品货架，装米，封装食物向低收入家庭及人群分发免费食；同年10月参与2016年美国总统大选向市民分发选票的志愿活动 </t>
+  </si>
+  <si>
+    <t>接待来访民众并做好相关信息登记工作，定期完成电子录入，并向部门主管学习询问县民政局基础工作并主要深入学习研究信访办的常规工作</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
+    <t>融爱融乐心智障碍家庭支持中心</t>
+  </si>
+  <si>
+    <t>就业辅导员</t>
+  </si>
+  <si>
+    <t>中国，北京</t>
+  </si>
+  <si>
+    <t>评估心智障碍青年岗前能力并做出专业分析评定该青年是否有能力上岗就业。在心智障碍青年上岗之后提供专业的密集支持服务，帮助其熟练掌握工作内容和有效运用工作技巧，在心智障碍青年有能力独立完成工作之后，开展专业的跟踪支持，了解该案主的基本情况，最终帮助其实现稳定就业。于此同时，协同团队开展家长就业转衔课，普及融合教育的理念和创造融合教育的氛围，帮助心智障碍群体家长更好地支持和帮助他们的孩子实现稳定就业。</t>
+  </si>
+  <si>
+    <t>评估心智障碍青年岗前能力并做出专业分析评定该青年是否有能力上岗就业。在心智障碍青年上岗之后提供专业的密集支持服务，帮助其熟练掌握工作内容和有效运用工作技巧，在心智障碍青年有能力独立完成工作之后，开展专业的跟踪支持，了解该案主的基本情况，最终帮助其实现稳定就业。于此同时，协同团队开展家长就业转衔课，普及融合就业的理念和创造融合就业的氛围，帮助心智障碍群体家长更好地支持和帮助他们的孩子实现稳定就业。协助项目总监完成交付给资方的季报及双月报告的撰写，汇报工作内容、工作进展和工作成效；对接资方媒体传播方向负责人为其提供受益人故事和受益人影像素材；撰写中小型活动项目的项目方案并协助项目总监完成项目书的文字润色修改。设计心智障碍者自倡导活动之自主生活培训营的方案和课件，并独立带领心青年开展课程，完成对每一位心智障碍青年的个性化评估和总结，对接心智障碍者家长为其答疑解惑提供专业的融合就业知识普及和技巧输出。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,9 +329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,18 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -623,7 +669,7 @@
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -655,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -666,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -678,14 +724,14 @@
         <v>2019</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -693,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -717,82 +763,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -801,231 +839,231 @@
         <v>2018</v>
       </c>
       <c r="G6" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G7" s="1">
         <v>2018</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="F12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G13" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
@@ -1037,18 +1075,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1069,60 +1107,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
         <v>2017</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>2017</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2012</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1133,18 +1171,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
@@ -1165,18 +1203,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -1197,27 +1235,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G19" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
@@ -1229,18 +1267,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
@@ -1258,6 +1296,38 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1267,14 +1337,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8E4E2-29FC-6B44-964A-B9A6D1C8B589}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEE9864-38BE-2945-A557-C35E43C8A771}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460E7602-9203-C848-81CC-4DE39AA6ED67}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1290,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +2136,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +2144,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +2152,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1322,7 +2160,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>19</v>
       </c>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/B2DC6CF5-47AD-44CA-93F6-3C9530DF1D97/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B9525-59E2-6E4C-A4CD-ACA62D8297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA8DB2-4652-6D4E-8B82-6E5742197424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="76">
   <si>
     <t>loc</t>
   </si>
@@ -271,12 +271,15 @@
   <si>
     <t>评估心智障碍青年岗前能力并做出专业分析评定该青年是否有能力上岗就业。在心智障碍青年上岗之后提供专业的密集支持服务，帮助其熟练掌握工作内容和有效运用工作技巧，在心智障碍青年有能力独立完成工作之后，开展专业的跟踪支持，了解该案主的基本情况，最终帮助其实现稳定就业。于此同时，协同团队开展家长就业转衔课，普及融合就业的理念和创造融合就业的氛围，帮助心智障碍群体家长更好地支持和帮助他们的孩子实现稳定就业。协助项目总监完成交付给资方的季报及双月报告的撰写，汇报工作内容、工作进展和工作成效；对接资方媒体传播方向负责人为其提供受益人故事和受益人影像素材；撰写中小型活动项目的项目方案并协助项目总监完成项目书的文字润色修改。设计心智障碍者自倡导活动之自主生活培训营的方案和课件，并独立带领心青年开展课程，完成对每一位心智障碍青年的个性化评估和总结，对接心智障碍者家长为其答疑解惑提供专业的融合就业知识普及和技巧输出。</t>
   </si>
+  <si>
+    <t>北京市海淀区融爱融乐心智障碍者家庭支持中心</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,6 +311,13 @@
       <color theme="4"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,12 +339,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1342,7 +1353,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1459,8 +1470,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
+      <c r="C4" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>71</v>
@@ -1472,7 +1483,7 @@
         <v>2021</v>
       </c>
       <c r="G4" s="1">
-        <v>2022</v>
+        <v>9999</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>74</v>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/B2DC6CF5-47AD-44CA-93F6-3C9530DF1D97/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/94EF9B28-A8FC-4836-92DD-8E74E5D5BC4C/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CA8DB2-4652-6D4E-8B82-6E5742197424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6119EFC-F929-3A4A-8894-CAFE73160C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="74">
   <si>
     <t>loc</t>
   </si>
@@ -257,16 +257,10 @@
     <t>voluntary</t>
   </si>
   <si>
-    <t>融爱融乐心智障碍家庭支持中心</t>
-  </si>
-  <si>
     <t>就业辅导员</t>
   </si>
   <si>
     <t>中国，北京</t>
-  </si>
-  <si>
-    <t>评估心智障碍青年岗前能力并做出专业分析评定该青年是否有能力上岗就业。在心智障碍青年上岗之后提供专业的密集支持服务，帮助其熟练掌握工作内容和有效运用工作技巧，在心智障碍青年有能力独立完成工作之后，开展专业的跟踪支持，了解该案主的基本情况，最终帮助其实现稳定就业。于此同时，协同团队开展家长就业转衔课，普及融合教育的理念和创造融合教育的氛围，帮助心智障碍群体家长更好地支持和帮助他们的孩子实现稳定就业。</t>
   </si>
   <si>
     <t>评估心智障碍青年岗前能力并做出专业分析评定该青年是否有能力上岗就业。在心智障碍青年上岗之后提供专业的密集支持服务，帮助其熟练掌握工作内容和有效运用工作技巧，在心智障碍青年有能力独立完成工作之后，开展专业的跟踪支持，了解该案主的基本情况，最终帮助其实现稳定就业。于此同时，协同团队开展家长就业转衔课，普及融合就业的理念和创造融合就业的氛围，帮助心智障碍群体家长更好地支持和帮助他们的孩子实现稳定就业。协助项目总监完成交付给资方的季报及双月报告的撰写，汇报工作内容、工作进展和工作成效；对接资方媒体传播方向负责人为其提供受益人故事和受益人影像素材；撰写中小型活动项目的项目方案并协助项目总监完成项目书的文字润色修改。设计心智障碍者自倡导活动之自主生活培训营的方案和课件，并独立带领心青年开展课程，完成对每一位心智障碍青年的个性化评估和总结，对接心智障碍者家长为其答疑解惑提供专业的融合就业知识普及和技巧输出。</t>
@@ -662,6 +656,695 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
   <dimension ref="A1:J21"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8E4E2-29FC-6B44-964A-B9A6D1C8B589}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
@@ -781,14 +1464,14 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F4" s="1">
         <v>2021</v>
@@ -796,697 +1479,8 @@
       <c r="G4" s="1">
         <v>9999</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2018</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8E4E2-29FC-6B44-964A-B9A6D1C8B589}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/94EF9B28-A8FC-4836-92DD-8E74E5D5BC4C/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6119EFC-F929-3A4A-8894-CAFE73160C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6431C-5ACB-6849-9902-364A7F4E74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
   <si>
     <t>loc</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>北京市海淀区融爱融乐心智障碍者家庭支持中心</t>
+  </si>
+  <si>
+    <t>实习生</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -658,7 +661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1027,7 +1030,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>46</v>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/01393BA1-448B-4D49-9DA3-0EBBF7DCCCC6/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6431C-5ACB-6849-9902-364A7F4E74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B09425-E208-2941-9AE7-479B25C75A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5320" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="9800" yWindow="9440" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK52" localSheetId="1">english_version!$C$7</definedName>
-    <definedName name="OLE_LINK52" localSheetId="0">main!$C$7</definedName>
+    <definedName name="OLE_LINK52" localSheetId="0">main!$C$8</definedName>
     <definedName name="OLE_LINK65" localSheetId="1">english_version!$D$9</definedName>
-    <definedName name="OLE_LINK65" localSheetId="0">main!$D$9</definedName>
+    <definedName name="OLE_LINK65" localSheetId="0">main!$D$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="78">
   <si>
     <t>loc</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>实习生</t>
+  </si>
+  <si>
+    <t>水滴公司—枫林社会工作发展中心</t>
+  </si>
+  <si>
+    <t>医务社会工作者</t>
+  </si>
+  <si>
+    <t>在北京医科大学首都儿童医院和北京宣武医院完成医务社会工作者的专业日常工作，其中包括每日定期的病房探访项目约2-3小时，完成后根据机构的探访表格做详细的记录和反思总结；面对大病医保在京无法享受优惠政策的案主，开展筹转介工作并依据国情将西方社会工作的理念和技巧本土化，对有需要的案主展开有效有益的个案工作介入，同时将案主同意宣传的相关信息转介给筹顾问，发布在互联网上帮助案主筹集善款并帮助其渡过难关；每月挑选经典有影响力的案主的案例撰写个案工作的经典故事并作有效的案例分析，分享在团队内部与其团队成员共同学习与成长；支持与协助驻科医院的大型节日和活动，根据社会工作的专业技巧和理念，设计每次活动的方案和项目书，与医院的医生和护士共同将相关的项目和活动方案落地，帮助医生和护士开展更好的活动项目和营造良好的医患关系氛围；在公司总部帮助项目总监挑选全国范围内可能实施儿童医务社会项目的医院，同时按照相关的医院实际情况，撰写可以落地的有效项目书；协助项目经理完成全国各地医院的数据核对和修改，确保相关项目的有效进行和数据分析的准确性。</t>
   </si>
 </sst>
 </file>
@@ -336,12 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -657,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -716,28 +724,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>2015</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>2019</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -746,28 +753,28 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>2011</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2015</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -775,29 +782,24 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -806,26 +808,24 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -835,28 +835,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="G6" s="1">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
         <v>2019</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
+      <c r="G6">
+        <v>2020</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -866,28 +860,28 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>2018</v>
       </c>
-      <c r="G7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="G7">
+        <v>2019</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -898,60 +892,60 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8">
         <v>2018</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="G8">
+        <v>2018</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>2017</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -962,28 +956,28 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+      <c r="G10">
+        <v>9999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -994,28 +988,28 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="F11">
+        <v>2017</v>
+      </c>
+      <c r="G11">
+        <v>2017</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1026,60 +1020,60 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>2016</v>
+      </c>
+      <c r="G12">
+        <v>2016</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>2015</v>
+      </c>
+      <c r="G13">
+        <v>2015</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1088,30 +1082,30 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14">
         <v>2012</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="G14">
+        <v>2013</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1120,62 +1114,62 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>2011</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>2012</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>2011</v>
+      </c>
+      <c r="G16">
+        <v>2012</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1186,28 +1180,28 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>2017</v>
+      </c>
+      <c r="G17">
+        <v>2017</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1218,28 +1212,28 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>2012</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>2012</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1250,28 +1244,28 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>2012</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>2012</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1282,28 +1276,28 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="F20">
+        <v>2012</v>
+      </c>
+      <c r="G20">
+        <v>2012</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1314,28 +1308,60 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>2011</v>
+      </c>
+      <c r="G21">
+        <v>2011</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22">
         <v>2011</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22">
         <v>2011</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1405,28 +1431,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>2015</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>2019</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -1435,28 +1460,28 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>2011</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2015</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1467,26 +1492,24 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>9999</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -1495,26 +1518,24 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>2019</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>2020</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -1523,28 +1544,28 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>2018</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>2019</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1555,28 +1576,28 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>2018</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>2018</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1587,28 +1608,28 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>2017</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>2018</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1619,28 +1640,28 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>2019</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>9999</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1651,28 +1672,28 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>2017</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>2017</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1683,28 +1704,28 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>2016</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>2016</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1715,28 +1736,28 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>2015</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>2015</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1747,28 +1768,28 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>2012</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>2013</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1779,28 +1800,28 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>2011</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>2012</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1811,28 +1832,28 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>2011</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>2012</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1843,28 +1864,28 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>2017</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>2017</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1875,28 +1896,28 @@
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>2012</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>2012</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1907,28 +1928,28 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>2012</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>2012</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1939,28 +1960,28 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>2012</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>2012</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1971,28 +1992,28 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>2011</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>2011</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2003,28 +2024,28 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>2011</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>2011</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2044,66 +2065,66 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>2019</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>9999</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2018</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2016</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>2015</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2015</v>
       </c>
     </row>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/01393BA1-448B-4D49-9DA3-0EBBF7DCCCC6/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/CAF793A7-38EE-45CC-8FBF-0CEB23F6C7A8/192.168.1.19/datalus/weiyu/git/cv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B09425-E208-2941-9AE7-479B25C75A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B5C5E-D548-E849-866C-655461907946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="9440" windowWidth="26900" windowHeight="15040" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="9800" yWindow="9440" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="language_skills" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK52" localSheetId="1">english_version!$C$7</definedName>
+    <definedName name="OLE_LINK52" localSheetId="1">english_version!$C$8</definedName>
     <definedName name="OLE_LINK52" localSheetId="0">main!$C$8</definedName>
-    <definedName name="OLE_LINK65" localSheetId="1">english_version!$D$9</definedName>
+    <definedName name="OLE_LINK65" localSheetId="1">english_version!$D$10</definedName>
     <definedName name="OLE_LINK65" localSheetId="0">main!$D$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
   <si>
     <t>loc</t>
   </si>
@@ -369,9 +369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -667,9 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D4E204-A097-E246-8420-89EA1CD35275}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1372,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8E4E2-29FC-6B44-964A-B9A6D1C8B589}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1489,26 +1489,23 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
+      <c r="C4" t="s">
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G4">
-        <v>9999</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>2023</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1518,23 +1515,23 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1544,29 +1541,23 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G6">
-        <v>2019</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
+        <v>2020</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1577,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1589,13 +1580,13 @@
         <v>2018</v>
       </c>
       <c r="G7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -1609,22 +1600,22 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G8">
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1635,28 +1626,28 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
+      <c r="C9" t="s">
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G9">
-        <v>9999</v>
+        <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1673,22 +1664,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G10">
-        <v>2017</v>
+        <v>9999</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1705,25 +1696,25 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -1737,25 +1728,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -1763,28 +1754,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G13">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1798,22 +1789,22 @@
         <v>47</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -1830,13 +1821,13 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1859,25 +1850,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="G16">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -1897,19 +1888,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="G17">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="H17" t="s">
         <v>10</v>
@@ -1932,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -1964,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -1996,16 +1987,16 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
       </c>
       <c r="F20">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G20">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -2028,7 +2019,7 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -2046,6 +2037,38 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>2011</v>
+      </c>
+      <c r="G22">
+        <v>2011</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
         <v>10</v>
       </c>
     </row>

--- a/yz.xlsx
+++ b/yz.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/CAF793A7-38EE-45CC-8FBF-0CEB23F6C7A8/192.168.1.19/datalus/weiyu/git/cv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Mobile Documents/com~apple~CloudDocs/Family/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B5C5E-D548-E849-866C-655461907946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBBD5D-94F6-1441-842A-CCFA06CA644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="9440" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
+    <workbookView xWindow="19520" yWindow="12020" windowWidth="26900" windowHeight="15040" activeTab="1" xr2:uid="{49BEF855-14FC-304C-9B93-8FA563204E38}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
     <sheet name="english_version" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="language_skills" sheetId="2" r:id="rId4"/>
+    <sheet name="language_skills" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK52" localSheetId="1">english_version!$C$8</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="134">
   <si>
     <t>loc</t>
   </si>
@@ -169,9 +168,6 @@
   </si>
   <si>
     <t>松阳县民政局信访办</t>
-  </si>
-  <si>
-    <t>实行生</t>
   </si>
   <si>
     <t>中国，丽水</t>
@@ -280,12 +276,183 @@
   <si>
     <t>在北京医科大学首都儿童医院和北京宣武医院完成医务社会工作者的专业日常工作，其中包括每日定期的病房探访项目约2-3小时，完成后根据机构的探访表格做详细的记录和反思总结；面对大病医保在京无法享受优惠政策的案主，开展筹转介工作并依据国情将西方社会工作的理念和技巧本土化，对有需要的案主展开有效有益的个案工作介入，同时将案主同意宣传的相关信息转介给筹顾问，发布在互联网上帮助案主筹集善款并帮助其渡过难关；每月挑选经典有影响力的案主的案例撰写个案工作的经典故事并作有效的案例分析，分享在团队内部与其团队成员共同学习与成长；支持与协助驻科医院的大型节日和活动，根据社会工作的专业技巧和理念，设计每次活动的方案和项目书，与医院的医生和护士共同将相关的项目和活动方案落地，帮助医生和护士开展更好的活动项目和营造良好的医患关系氛围；在公司总部帮助项目总监挑选全国范围内可能实施儿童医务社会项目的医院，同时按照相关的医院实际情况，撰写可以落地的有效项目书；协助项目经理完成全国各地医院的数据核对和修改，确保相关项目的有效进行和数据分析的准确性。</t>
   </si>
+  <si>
+    <t>University of Minnesota, twin cities</t>
+  </si>
+  <si>
+    <t>Mastr of Social Work</t>
+  </si>
+  <si>
+    <t>Saint Paul, MN, USA</t>
+  </si>
+  <si>
+    <t>Professional branch: Clinical and mental health</t>
+  </si>
+  <si>
+    <t>Second branch: Children and family</t>
+  </si>
+  <si>
+    <t>ZheJiang ShuRen College</t>
+  </si>
+  <si>
+    <t>Bechalor of Social Work</t>
+  </si>
+  <si>
+    <t>HangZhou, China</t>
+  </si>
+  <si>
+    <t>Maple Forest Scoail Work Development Center, ShuiDi Company</t>
+  </si>
+  <si>
+    <t>Medical Social Worker</t>
+  </si>
+  <si>
+    <t>BeiJing, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the daily work of a first line medical social worker at BeiJing Children's hospital and BeiJing XuanWu Hospital, which includes regular daily visits for about 2-3 hours. After compleion, make detailed reports according to the instition's visit form record, reflections and summaries. Carry out referral work for clients who cannot enjoy preferential policies of critical illness medical insurance in BeiJing and localize western social work concepts and techniques based on national conditions and provide effective and beneficial case work intervention to clients in need. At same time, the relevant infomation that clients agress to be publized will be transferred to case manager for posing on the internet to help them with money collecting to overcom financial difficulties;and the classics of influential client stories will be published every month and the cliassics of case work will be published too. Share good stories and effective case anaysis in the work team to learn and grow with team memebers. Support and aissit large-scale fesivals and meaningful activities of hospitals. Based on professional skills and concepts of social work, design case plans and write program documents. Work with doctors and nurses in hospital to develop better hospital activties and strenthen relationships of coworkers. Support with first line doctor-paient relationship. Assist project diretor at company headquarthers to select social programs for children's hospitals and compile a report based on actual conditions of relevant hospitals. Write effective projects which can be implemented; assist the project manager to complete data verifications and moifications of hospital information across country to ensure documents of relevant projects and accuracy of data analysis. </t>
+  </si>
+  <si>
+    <t>RongAiRongLe Family Support Center for People with Mental Disabilities</t>
+  </si>
+  <si>
+    <t>Job Coach</t>
+  </si>
+  <si>
+    <t>BeiJIng, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assess the early stage of employment for young peple who have mental health problems to make a professional analysis to evaluate whether young people have the ability to be employed. Provide professional and intensive suport services to young people with intellectual disability after they start to work in first 2 weeks. Help them be familar with job responsibilties and apply work skills effectivly. After young people with intellectual disability are able to complete work independently, provide prefessional folow-up support, understand the basic situations of clients' hardship in work field, and finally help them achieve stable employment. At same time, work with the team to carry out parent employment transffering courses, popularize the concept of inclusive employment and creation of an atmosphere of inclusive employment help parents to better suport thier children with intellectual achieve stable employment. Assist the project director to complete or deliever mothly and quartherly reports to the employer. Report the work content, work progress and work achievements , contact the social media manager to provide her with beneficiary stories and positive image materials. Write project plans for small and meduim size acitivity and assist project diector with writing modifications of pogram documents. Design plans and courseware of self-confidence and life-independece trainning camp for youg people with intellectual disabiity and lead young clients to learn practical skills to complete personalized assessment, make a summary of each one's progress and performances. Connce with clients' parents with professional theories and inclusive educations. </t>
+  </si>
+  <si>
+    <t>Task Unlimited, Inc.</t>
+  </si>
+  <si>
+    <t>Job Placement Coordinator</t>
+  </si>
+  <si>
+    <t>Minneapolis, Chian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide employment consultation services career stability assessments for client with physical and mental disability who live in vunerable situations. Work closely wih county career couselors to support clients with applying of social welfare and state perks. Assist clients with stability of professional skills and build up long-term career plans to enure they walk in a right path of employment. Based on clients' personal work skills and job experiences, use professional social work skills to help clients choose and pursue suitable jobs, help clients with developing vocational training and employment plans, analyze the clients' strengths and show them how to effectively use these advantages at work. Provide guidance for cients to complete the work tasks during learning process. Assess clients' need of work training and work support, supervise and evaluate the clients' progres in all aspecs. Record timely workloads and provide intensive feedback to supervisors. Estabilish a good professional relationship with clients, provide empathetic and constructive reactions. Develop and maintain meaningful partnerships with empployers and HR to create more job opportunities  for clients. Help clients modify resme, improve interview skills, refine work dressing, apply for accomodations for whom need them and develop mocking interviews to increase thier confidence. Encourage clients participate in job fairs to explore more job opportunities and improve interpersonl skills and communications skills with employers. </t>
+  </si>
+  <si>
+    <t>University of Minnesota, twin cities  "NAVIAGETE" program</t>
+  </si>
+  <si>
+    <t>Vocational and Educational Specialist(Intern)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support clients with first episode of psychosis to achieve educational and vocational goals with IPS (Individual Placement and Support) model thoery to support them live in a behaviroal healthy environment. Help client  make sure to have the ability to choose a right career. Conduct home visits under professional conditions to assit clients with homework and voational training. Record and analyze thier progress in career and academic feild in a comfortable environment. Establish professional cooperative relationsips ith clients' family to help them build up healthy and intimate relationships with relatives and friends. Visit clients' shcool and workplaces to confirm thier progress in the professional environment and train them to improve their work and academic skills. Assess clients' strengths in professional feilds and weakness needs to be improved. Participate in regular meetings to discuss clients' progress ad problems with psychologists  and psychiatrists. Use CBT (Cognitive Behaviroal Therapy) and DBT (Dialectical Behavioral Therapy) and self-rehabilitation training theory to provide part of psychological counseling servies to clients. </t>
+  </si>
+  <si>
+    <t>Lutheran Church--"Life Heaven" Program</t>
+  </si>
+  <si>
+    <t>Youth Worker(Part-time)</t>
+  </si>
+  <si>
+    <t>Saint Paul,MN, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervie and train youth mothers with independent life skills and assist them with financial management skills. Strengthen clients' ability of housework comepletion and train them withh interview skils. Develop interventions of mental and physical problems of youth mothers to guide them improve parenting skills. Write daily work journey ofclients' performances and conversations also transfer data to eletronic version. Protect youth mothers and thier new-borns safety to ensure they live in a comfortable environment. </t>
+  </si>
+  <si>
+    <t>Case-manager(Intern）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support job seekers with employment difficulties (75% of them are refugees and new immigrants in the  United States) in resume wirting and work skills building. Provide one-on-one career consulting services to improve clients' social skills and interview skills. Provide job search skills training and career outreach training services. Help clients improve language skills including oral and written English. Participate in regular supervision meetings to analyze cases comprehensively includin thier transportations, medical insuance and chidlren care and so on. Cooprate with other non-profit angcies to help clients gain more social resources. Provide mocking interview to help them improve communication skills. Develop a trust relationship with clients by providing an empathetic and constructive reactions feedbacks. </t>
+  </si>
+  <si>
+    <t>MAZE Nonprofit Agency</t>
+  </si>
+  <si>
+    <t>Human Resources Manager(Volunteer)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design interview questions and case study. Provide telephon/video/voices interviews for applicants and coordinate the harmonious relationship in the organization. Organize institutional team activities to strenthen professinal relationships and emotional connections among members. Participate in institutional project desgin ad outreach to explore more opportunities for donations an cooprations. </t>
+  </si>
+  <si>
+    <t>Hope Community--Learning in the Community Program</t>
+  </si>
+  <si>
+    <t>Children's Reading Tutor(Volunteer)</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide Community-base weekend reading tutoring services for school aged children from 6 to 9 years old. Respond to Children's problems in reading and help them complete with homework. </t>
+  </si>
+  <si>
+    <t>CAPI Non-profit agency</t>
+  </si>
+  <si>
+    <t>Free Food Supply Warehouse Worker(Volunteer)</t>
+  </si>
+  <si>
+    <t>SongYang County Civil Affairs Bureau</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>LiShui, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive clients' visiting and register relevant information. Complete electronic entry on a regular basis. Learn basic civil affairs from supervisor and communicate with clients to comfort their negative emotions. </t>
+  </si>
+  <si>
+    <t>Director of the Alumni Departmet of the School of Humanity</t>
+  </si>
+  <si>
+    <t>Class communications Coordinator</t>
+  </si>
+  <si>
+    <t>Zhejiang ShuRen College</t>
+  </si>
+  <si>
+    <t>English Class Representaive of Socil Work</t>
+  </si>
+  <si>
+    <t>Minnesota Dance Festival</t>
+  </si>
+  <si>
+    <t>Second Prize for Novice ChaCha Dance and Third Prize for Novice Rumba Dance</t>
+  </si>
+  <si>
+    <t>Advanced individual in Social Work</t>
+  </si>
+  <si>
+    <t>First Prize in the "My Faith" Speech Contest of the 12th Cultural and Art Festival</t>
+  </si>
+  <si>
+    <t>HangZhou,China</t>
+  </si>
+  <si>
+    <t>First Prize in the "Ode to the motherland" Poetry Recitation Competition of the 12th Cultural and Aet Festival</t>
+  </si>
+  <si>
+    <t>First Prize of the 4th "Ode t Autumn" Poetry Recitation Competition</t>
+  </si>
+  <si>
+    <t>First Prize of the 4th "Host Competition"</t>
+  </si>
+  <si>
+    <t>Daily Work, Inc</t>
+  </si>
+  <si>
+    <t>Organize food shelves, package food and distribute free food to low-income family and vulnerabe populations. Participated in voluntary activity of distributing ballots to citizens for the 2016 US presidential election.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +491,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,12 +522,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -740,7 +919,7 @@
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -754,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -783,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -798,7 +977,7 @@
         <v>2023</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -809,13 +988,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -824,7 +1003,7 @@
         <v>2022</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -850,7 +1029,7 @@
         <v>2020</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -876,7 +1055,7 @@
         <v>2019</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -908,7 +1087,7 @@
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -940,7 +1119,7 @@
         <v>2018</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -951,7 +1130,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -983,7 +1162,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1004,7 +1183,7 @@
         <v>2017</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1015,7 +1194,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1036,7 +1215,7 @@
         <v>2016</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
@@ -1047,7 +1226,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1056,10 +1235,10 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>2015</v>
@@ -1068,7 +1247,7 @@
         <v>2015</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1079,16 +1258,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1111,16 +1290,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1143,16 +1322,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -1175,16 +1354,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
@@ -1207,16 +1386,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -1239,16 +1418,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -1271,16 +1450,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -1303,16 +1482,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
@@ -1335,16 +1514,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -1376,7 +1555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1432,13 +1611,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>2015</v>
@@ -1447,10 +1626,10 @@
         <v>2019</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1461,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>2011</v>
@@ -1489,14 +1668,17 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -1505,7 +1687,7 @@
         <v>2023</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1515,14 +1697,14 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>73</v>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1530,8 +1712,8 @@
       <c r="G5">
         <v>2022</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>72</v>
+      <c r="H5" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1542,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -1556,8 +1738,8 @@
       <c r="G6">
         <v>2020</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
+      <c r="H6" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1568,13 +1750,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -1583,10 +1765,7 @@
         <v>2019</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -1600,13 +1779,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>2018</v>
@@ -1615,7 +1794,7 @@
         <v>2018</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1632,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <v>2017</v>
@@ -1646,8 +1825,8 @@
       <c r="G9">
         <v>2018</v>
       </c>
-      <c r="H9" t="s">
-        <v>65</v>
+      <c r="H9" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -1658,19 +1837,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
+      <c r="C10" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -1679,7 +1858,7 @@
         <v>9999</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1690,19 +1869,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
+      <c r="C11" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>2017</v>
@@ -1711,7 +1890,7 @@
         <v>2017</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -1722,19 +1901,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>41</v>
+      <c r="C12" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>2016</v>
@@ -1743,10 +1922,10 @@
         <v>2016</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>10</v>
@@ -1754,19 +1933,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
+      <c r="C13" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F13">
         <v>2015</v>
@@ -1775,7 +1954,7 @@
         <v>2015</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1786,19 +1965,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>2012</v>
@@ -1818,19 +1997,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>2011</v>
@@ -1850,19 +2029,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>2011</v>
@@ -1882,19 +2061,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>2017</v>
@@ -1914,19 +2093,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>2012</v>
@@ -1946,19 +2125,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F19">
         <v>2012</v>
@@ -1978,19 +2157,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>2012</v>
@@ -2010,19 +2189,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>2011</v>
@@ -2042,19 +2221,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>2011</v>
@@ -2078,85 +2257,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEE9864-38BE-2945-A557-C35E43C8A771}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>2019</v>
-      </c>
-      <c r="B1">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2017</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2016</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2015</v>
-      </c>
-      <c r="B8">
-        <v>2015</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460E7602-9203-C848-81CC-4DE39AA6ED67}">
   <dimension ref="A1:B7"/>
   <sheetViews>
